--- a/Аналитика.xlsx
+++ b/Аналитика.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>96.15%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -603,17 +603,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>96.15%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>30</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -623,12 +623,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>300</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -671,7 +671,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>88.46%</t>
+          <t>92.31%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>88.46%</t>
+          <t>92.31%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>80.77%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -793,22 +793,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>112.50%</t>
+          <t>105.00%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>300</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -895,22 +895,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-23</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>12.00%</t>
+          <t>11.54%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -977,13 +977,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7.69%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -993,31 +997,43 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>33.33%</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+          <t>180.00%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>да - пока не принял</t>
+          <t>да</t>
         </is>
       </c>
     </row>
@@ -1079,22 +1095,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>38.46%</t>
+          <t>29.41%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1155,21 +1171,57 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10/28/2024</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>да - пока не принял</t>
+          <t xml:space="preserve">да </t>
         </is>
       </c>
     </row>
@@ -1231,22 +1283,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>35.00%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1313,7 +1365,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>80.77%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1323,7 +1375,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1333,12 +1385,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1348,7 +1400,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>80.77%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1368,7 +1420,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>120</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1407,6 +1459,304 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Алина</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>a.nihelman@cfunalog.ru</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>80.77%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>10/8/2024</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>105.00%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>eightofmart@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>11.54%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>9/29/2024</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>-23</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>11.54%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>a.kozlova@cfunalog.ru</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>10/18/2024</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>180.00%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>a.gavrilov@cfunalog.ru</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>19.23%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>10/11/2024</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>29.41%</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Дима</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dbezzhovchiy@gmail.com</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Аналитика.xlsx
+++ b/Аналитика.xlsx
@@ -1639,7 +1639,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">

--- a/Аналитика.xlsx
+++ b/Аналитика.xlsx
@@ -1747,7 +1747,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
